--- a/data/processed/sample_predicoes.xlsx
+++ b/data/processed/sample_predicoes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,105 +436,110 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>ano_pede</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ano_pede</t>
+          <t>idade</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>genero</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ano_ingresso</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>inde_2022</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>inde_2023</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>n_av</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>iaa</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ieg</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ips</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ipp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ida</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>mat</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>por</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ing</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ipv</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>fase_ideal</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>risco_defasagem_atual</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>media_academica</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>media_comportamental</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>delta_inde</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>proba</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>pred</t>
         </is>
@@ -542,576 +547,646 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1207</v>
+        <v>2023</v>
       </c>
       <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>2023</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
         <v>5.97345</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>10</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>2.52</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>5.3125</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>3.9</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>4.5</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>3.3</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>6.5</v>
       </c>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
         <v>3.9</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>6.783125</v>
       </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>0.9753351253663117</v>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
+        <v>0.9425</v>
+      </c>
+      <c r="V2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>256</v>
+        <v>2024</v>
       </c>
       <c r="B3" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>feminino</t>
+        </is>
+      </c>
       <c r="D3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
         <v>6.4782</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>10.002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>5.3896103895</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>5.635</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>7.1875</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>4</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>4.25</v>
       </c>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7.053527597375</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="V3" t="n">
         <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>7.053527597375</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>2.661522391304932e-05</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2356</v>
+        <v>2022</v>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
-      </c>
-      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>feminino</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2019</v>
+      </c>
+      <c r="E4" t="n">
         <v>7.928</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>8.9</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>7.5</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
         <v>5.8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>5.3</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>7.2</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>4.8</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>7.917</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5.766666666666667</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>0.0775</v>
+      </c>
+      <c r="V4" t="n">
         <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5.766666666666667</v>
-      </c>
-      <c r="R4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>0.2637694717944616</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>175</v>
+        <v>2024</v>
       </c>
       <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>2024</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>9.502000000000001</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>10</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>7.51</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>7.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>8.25</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>10</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>6.5</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
-        <v>7.5</v>
       </c>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>8.25</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>8.628</v>
       </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="n">
-        <v>0.7291228510701769</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="V5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>211</v>
+        <v>2024</v>
       </c>
       <c r="B6" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
       <c r="D6" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
         <v>6.8617</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>3</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>8.502000000000001</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>9.328063240999999</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>4.38</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>5.3125</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7.25</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>6</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>8.5</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>5.783333333</v>
       </c>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.783333333</v>
       </c>
       <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
         <v>7.25</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>6.880640810249999</v>
       </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="n">
-        <v>0.01006178527601491</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.6825</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>411</v>
+        <v>2024</v>
       </c>
       <c r="B7" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>feminino</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E7" t="n">
         <v>7.038889111111112</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>5.823133333</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>3</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>9.002000000000001</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>7.595238095</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>4.385</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>5.625</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3</v>
       </c>
       <c r="L7" t="n">
         <v>3</v>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
       <c r="N7" t="n">
-        <v>5.996666667</v>
+        <v>3</v>
       </c>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>5.996666667</v>
       </c>
       <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
         <v>3</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>6.65180952375</v>
       </c>
-      <c r="S7" t="n">
-        <v>-1.215755778111111</v>
-      </c>
       <c r="T7" t="n">
-        <v>0.986001122112469</v>
+        <v>-1.215755778111112</v>
       </c>
       <c r="U7" t="n">
+        <v>0.8275</v>
+      </c>
+      <c r="V7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>52</v>
+        <v>2024</v>
       </c>
       <c r="B8" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>feminino</t>
+        </is>
+      </c>
       <c r="D8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
         <v>7.0797</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>3</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>9.002000000000001</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>9.4736842105</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>7.51</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>8.125</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7.25</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>7</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>7.5</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
-        <v>6.943333333</v>
       </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>6.943333333</v>
       </c>
       <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
         <v>7.25</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>8.527671052624999</v>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="n">
-        <v>0.9785717410703288</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>266</v>
+        <v>2024</v>
       </c>
       <c r="B9" t="n">
-        <v>2024</v>
-      </c>
-      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>masculino</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E9" t="n">
         <v>7.736100484848485</v>
       </c>
-      <c r="D9" t="n">
+      <c r="F9" t="n">
         <v>7.6802</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>3</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>10.002</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>8.484848484500001</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>6.26</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>8.125</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>8.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>10</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>7</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
-        <v>8.056666667</v>
       </c>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>8.056666667</v>
       </c>
       <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
         <v>8.5</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>8.217962121125</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-0.0559004848484852</v>
       </c>
-      <c r="T9" t="n">
-        <v>0.8787992643408458</v>
-      </c>
       <c r="U9" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>479</v>
+        <v>2024</v>
       </c>
       <c r="B10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>feminino</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>2024</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="n">
         <v>4</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>8.502000000000001</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>8.782608695499999</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>7.51</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>6.875</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>4.75</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>4</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>5.5</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>6.8275</v>
       </c>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>6.8275</v>
       </c>
       <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
         <v>4.75</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>7.917402173874999</v>
       </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="n">
-        <v>0.000109889164728879</v>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="V10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1292</v>
+        <v>2023</v>
       </c>
       <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>feminino</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>2023</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
         <v>8.017200000000001</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>2</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>9.5</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>8.1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>7.52</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>6.25</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>8.9</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>9.1</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>8.6</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
-        <v>6.5</v>
       </c>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>8.85</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>7.8425</v>
       </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="n">
-        <v>0.1696492134386556</v>
-      </c>
+      <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0.0125</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
